--- a/catalog_template.xlsx
+++ b/catalog_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Боты\Megagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED920D22-E036-4960-9AC2-871F70EDD9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8038FC-5DE0-4E05-8591-3A04EE7C0FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="619">
   <si>
     <t>ИНСТРУКЦИЯ ПО ЗАПОЛНЕНИЮ КАТАЛОГА</t>
   </si>
@@ -1756,13 +1756,142 @@
   </si>
   <si>
     <t>показывать</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AO) MUAAOH1725TC</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AO) MUAAOH1735TC</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AO) MUAAOH1745TC</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AO) MUAAOH3035TC</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AO) MUAAOH3045TC</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AO) MUAAON0015C</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AO) MUAAON0025C</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AO) MUAAON0035C</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AO) MUAAON0045C</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AO) MUAAON1725TC Non-Hex</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AO) MUAAON1745TC non-hex</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AR) MUAARH1725LC</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AR) MUAARH1735LC</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AR) MUAARH1745LC</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AR) MUAARH3035LC</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AR) MUAARH3045LC</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AR) MUAARN0015C</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AR) MUAARN0025C</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AR) MUAARN0035C</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AR) MUAARN0045C</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AR) MUAARN1725LC Non-Hex</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AR) MUAARN1735LC Non-Hex</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AR) MUAARN3035LC Non-Hex</t>
+  </si>
+  <si>
+    <t>Multi-Unit (AR) MUAARN3045LC Non-Hex</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) NC MUAARONN0015C</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) NC MUAARONN0025C</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) NC MUAARONN0035C</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) NC MUAARONN0045C</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) NC MUAARONO1725TC</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) NC MUAARONO1735TC</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) NC MUAARONO1745TC</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) NC MUAARONO3035TC</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) NC MUAARONO3045TC</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) RC MUAARORN 0015C</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) RC MUAARORN 0025C</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) RC MUAARORN 0035C</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) RC MUAARORN 0045C</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) RC MUAARORO1725TC</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) RC MUAARORO1735TC</t>
+  </si>
+  <si>
+    <t>Multi-unit (BD) RC MUAARORO3035TC</t>
+  </si>
+  <si>
+    <t>Прямой</t>
+  </si>
+  <si>
+    <t>тип</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1797,8 +1926,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1814,12 +1959,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1936,7 +2075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2003,7 +2142,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2521,7 +2669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
@@ -7841,18 +7989,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K182"/>
+  <dimension ref="A1:K208"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H171" sqref="H171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="40" style="21" customWidth="1"/>
+    <col min="3" max="3" width="40" style="34" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
@@ -7869,7 +8017,7 @@
       <c r="B1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -7904,7 +8052,7 @@
       <c r="B2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="33" t="s">
         <v>161</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -7937,9 +8085,9 @@
         <v>59</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>162</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -7974,7 +8122,7 @@
       <c r="B4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="33" t="s">
         <v>163</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -8009,7 +8157,7 @@
       <c r="B5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="33" t="s">
         <v>164</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -8044,7 +8192,7 @@
       <c r="B6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="33" t="s">
         <v>165</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -8079,7 +8227,7 @@
       <c r="B7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="33" t="s">
         <v>166</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -8114,7 +8262,7 @@
       <c r="B8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="33" t="s">
         <v>167</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -8149,7 +8297,7 @@
       <c r="B9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="33" t="s">
         <v>168</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -8184,7 +8332,7 @@
       <c r="B10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="33" t="s">
         <v>169</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -8219,7 +8367,7 @@
       <c r="B11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="33" t="s">
         <v>170</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -8254,7 +8402,7 @@
       <c r="B12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="33" t="s">
         <v>171</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -8289,7 +8437,7 @@
       <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="33" t="s">
         <v>172</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -8324,7 +8472,7 @@
       <c r="B14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="33" t="s">
         <v>173</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -8359,7 +8507,7 @@
       <c r="B15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="33" t="s">
         <v>174</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -8394,7 +8542,7 @@
       <c r="B16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="33" t="s">
         <v>175</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -8429,7 +8577,7 @@
       <c r="B17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="33" t="s">
         <v>176</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -8464,7 +8612,7 @@
       <c r="B18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="33" t="s">
         <v>177</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -8499,7 +8647,7 @@
       <c r="B19" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="33" t="s">
         <v>178</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -8534,7 +8682,7 @@
       <c r="B20" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="33" t="s">
         <v>179</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -8569,7 +8717,7 @@
       <c r="B21" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="33" t="s">
         <v>180</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -8604,7 +8752,7 @@
       <c r="B22" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="33" t="s">
         <v>181</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -8639,7 +8787,7 @@
       <c r="B23" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="33" t="s">
         <v>182</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -8674,7 +8822,7 @@
       <c r="B24" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="33" t="s">
         <v>183</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -8709,7 +8857,7 @@
       <c r="B25" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="33" t="s">
         <v>184</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -8744,7 +8892,7 @@
       <c r="B26" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="33" t="s">
         <v>185</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -8779,7 +8927,7 @@
       <c r="B27" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="33" t="s">
         <v>186</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -8814,7 +8962,7 @@
       <c r="B28" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="33" t="s">
         <v>187</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -8849,7 +8997,7 @@
       <c r="B29" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="33" t="s">
         <v>188</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -8884,7 +9032,7 @@
       <c r="B30" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="33" t="s">
         <v>189</v>
       </c>
       <c r="D30" s="10" t="s">
@@ -8919,7 +9067,7 @@
       <c r="B31" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="33" t="s">
         <v>190</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -8954,7 +9102,7 @@
       <c r="B32" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="33" t="s">
         <v>191</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -8989,7 +9137,7 @@
       <c r="B33" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="33" t="s">
         <v>192</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -9024,7 +9172,7 @@
       <c r="B34" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="33" t="s">
         <v>193</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -9059,7 +9207,7 @@
       <c r="B35" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="33" t="s">
         <v>194</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -9094,7 +9242,7 @@
       <c r="B36" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="33" t="s">
         <v>195</v>
       </c>
       <c r="D36" s="10" t="s">
@@ -9129,7 +9277,7 @@
       <c r="B37" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="33" t="s">
         <v>196</v>
       </c>
       <c r="D37" s="10" t="s">
@@ -9164,7 +9312,7 @@
       <c r="B38" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="33" t="s">
         <v>197</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -9199,7 +9347,7 @@
       <c r="B39" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="33" t="s">
         <v>198</v>
       </c>
       <c r="D39" s="10" t="s">
@@ -9234,7 +9382,7 @@
       <c r="B40" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="33" t="s">
         <v>199</v>
       </c>
       <c r="D40" s="10" t="s">
@@ -9269,7 +9417,7 @@
       <c r="B41" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="33" t="s">
         <v>209</v>
       </c>
       <c r="E41" s="3">
@@ -9301,7 +9449,7 @@
       <c r="B42" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="33" t="s">
         <v>210</v>
       </c>
       <c r="E42" s="3">
@@ -9333,7 +9481,7 @@
       <c r="B43" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="33" t="s">
         <v>211</v>
       </c>
       <c r="E43" s="3">
@@ -9365,7 +9513,7 @@
       <c r="B44" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="33" t="s">
         <v>212</v>
       </c>
       <c r="E44" s="19">
@@ -9397,7 +9545,7 @@
       <c r="B45" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="33" t="s">
         <v>213</v>
       </c>
       <c r="E45" s="19">
@@ -9429,7 +9577,7 @@
       <c r="B46" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="33" t="s">
         <v>214</v>
       </c>
       <c r="E46" s="19">
@@ -9461,7 +9609,7 @@
       <c r="B47" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="33" t="s">
         <v>215</v>
       </c>
       <c r="E47" s="19">
@@ -9493,7 +9641,7 @@
       <c r="B48" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="33" t="s">
         <v>216</v>
       </c>
       <c r="E48" s="19">
@@ -9525,7 +9673,7 @@
       <c r="B49" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="33" t="s">
         <v>217</v>
       </c>
       <c r="E49" s="19">
@@ -9557,7 +9705,7 @@
       <c r="B50" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="33" t="s">
         <v>218</v>
       </c>
       <c r="E50" s="19">
@@ -9589,7 +9737,7 @@
       <c r="B51" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="33" t="s">
         <v>219</v>
       </c>
       <c r="E51" s="19">
@@ -9621,7 +9769,7 @@
       <c r="B52" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="33" t="s">
         <v>220</v>
       </c>
       <c r="E52" s="19">
@@ -9653,7 +9801,7 @@
       <c r="B53" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="33" t="s">
         <v>221</v>
       </c>
       <c r="E53" s="19">
@@ -9685,7 +9833,7 @@
       <c r="B54" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="33" t="s">
         <v>222</v>
       </c>
       <c r="E54" s="19">
@@ -9717,7 +9865,7 @@
       <c r="B55" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="33" t="s">
         <v>223</v>
       </c>
       <c r="E55" s="19">
@@ -9749,7 +9897,7 @@
       <c r="B56" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="33" t="s">
         <v>224</v>
       </c>
       <c r="E56" s="19">
@@ -9781,7 +9929,7 @@
       <c r="B57" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="33" t="s">
         <v>225</v>
       </c>
       <c r="E57" s="19">
@@ -9813,7 +9961,7 @@
       <c r="B58" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="33" t="s">
         <v>226</v>
       </c>
       <c r="E58" s="19">
@@ -9845,7 +9993,7 @@
       <c r="B59" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="33" t="s">
         <v>227</v>
       </c>
       <c r="E59" s="19">
@@ -9877,7 +10025,7 @@
       <c r="B60" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="33" t="s">
         <v>228</v>
       </c>
       <c r="E60" s="19">
@@ -9909,7 +10057,7 @@
       <c r="B61" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="33" t="s">
         <v>229</v>
       </c>
       <c r="E61" s="19">
@@ -9941,7 +10089,7 @@
       <c r="B62" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="33" t="s">
         <v>230</v>
       </c>
       <c r="E62" s="19">
@@ -9973,7 +10121,7 @@
       <c r="B63" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="33" t="s">
         <v>231</v>
       </c>
       <c r="E63" s="19">
@@ -10005,7 +10153,7 @@
       <c r="B64" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="33" t="s">
         <v>232</v>
       </c>
       <c r="E64" s="19">
@@ -10037,7 +10185,7 @@
       <c r="B65" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="33" t="s">
         <v>233</v>
       </c>
       <c r="E65" s="19">
@@ -10069,7 +10217,7 @@
       <c r="B66" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="33" t="s">
         <v>234</v>
       </c>
       <c r="E66" s="19">
@@ -10101,7 +10249,7 @@
       <c r="B67" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="33" t="s">
         <v>235</v>
       </c>
       <c r="E67" s="19">
@@ -10133,7 +10281,7 @@
       <c r="B68" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="33" t="s">
         <v>236</v>
       </c>
       <c r="E68" s="19">
@@ -10165,7 +10313,7 @@
       <c r="B69" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="33" t="s">
         <v>237</v>
       </c>
       <c r="E69" s="19">
@@ -10197,7 +10345,7 @@
       <c r="B70" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="33" t="s">
         <v>238</v>
       </c>
       <c r="E70" s="19">
@@ -10229,7 +10377,7 @@
       <c r="B71" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="33" t="s">
         <v>239</v>
       </c>
       <c r="E71" s="19">
@@ -10261,7 +10409,7 @@
       <c r="B72" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="33" t="s">
         <v>240</v>
       </c>
       <c r="E72" s="19">
@@ -10293,7 +10441,7 @@
       <c r="B73" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="33" t="s">
         <v>241</v>
       </c>
       <c r="E73" s="19">
@@ -10325,7 +10473,7 @@
       <c r="B74" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="33" t="s">
         <v>243</v>
       </c>
       <c r="E74" s="19">
@@ -10337,9 +10485,7 @@
       <c r="G74">
         <v>3</v>
       </c>
-      <c r="H74" s="12">
-        <v>0</v>
-      </c>
+      <c r="H74" s="12"/>
       <c r="I74" s="8" t="s">
         <v>49</v>
       </c>
@@ -10357,7 +10503,7 @@
       <c r="B75" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="33" t="s">
         <v>244</v>
       </c>
       <c r="E75" s="19">
@@ -10369,9 +10515,7 @@
       <c r="G75">
         <v>4</v>
       </c>
-      <c r="H75" s="12">
-        <v>0</v>
-      </c>
+      <c r="H75" s="12"/>
       <c r="I75" s="8" t="s">
         <v>49</v>
       </c>
@@ -10389,7 +10533,7 @@
       <c r="B76" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="33" t="s">
         <v>245</v>
       </c>
       <c r="E76" s="19">
@@ -10401,9 +10545,7 @@
       <c r="G76">
         <v>5</v>
       </c>
-      <c r="H76" s="12">
-        <v>0</v>
-      </c>
+      <c r="H76" s="12"/>
       <c r="I76" s="8" t="s">
         <v>49</v>
       </c>
@@ -10421,7 +10563,7 @@
       <c r="B77" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="33" t="s">
         <v>246</v>
       </c>
       <c r="E77" s="19">
@@ -10433,9 +10575,7 @@
       <c r="G77">
         <v>6</v>
       </c>
-      <c r="H77" s="12">
-        <v>0</v>
-      </c>
+      <c r="H77" s="12"/>
       <c r="I77" s="8" t="s">
         <v>49</v>
       </c>
@@ -10453,7 +10593,7 @@
       <c r="B78" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="33" t="s">
         <v>247</v>
       </c>
       <c r="E78" s="19">
@@ -10465,9 +10605,7 @@
       <c r="G78">
         <v>7</v>
       </c>
-      <c r="H78" s="12">
-        <v>0</v>
-      </c>
+      <c r="H78" s="12"/>
       <c r="I78" s="8" t="s">
         <v>49</v>
       </c>
@@ -10485,7 +10623,7 @@
       <c r="B79" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="33" t="s">
         <v>248</v>
       </c>
       <c r="E79" s="19">
@@ -10497,9 +10635,7 @@
       <c r="G79">
         <v>3</v>
       </c>
-      <c r="H79" s="12">
-        <v>0</v>
-      </c>
+      <c r="H79" s="12"/>
       <c r="I79" s="8" t="s">
         <v>49</v>
       </c>
@@ -10517,7 +10653,7 @@
       <c r="B80" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="33" t="s">
         <v>249</v>
       </c>
       <c r="E80" s="19">
@@ -10529,9 +10665,7 @@
       <c r="G80">
         <v>4</v>
       </c>
-      <c r="H80" s="12">
-        <v>0</v>
-      </c>
+      <c r="H80" s="12"/>
       <c r="I80" s="8" t="s">
         <v>49</v>
       </c>
@@ -10549,7 +10683,7 @@
       <c r="B81" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="33" t="s">
         <v>250</v>
       </c>
       <c r="E81" s="19">
@@ -10561,9 +10695,7 @@
       <c r="G81">
         <v>5</v>
       </c>
-      <c r="H81" s="12">
-        <v>0</v>
-      </c>
+      <c r="H81" s="12"/>
       <c r="I81" s="8" t="s">
         <v>49</v>
       </c>
@@ -10581,7 +10713,7 @@
       <c r="B82" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="33" t="s">
         <v>251</v>
       </c>
       <c r="E82" s="19">
@@ -10593,9 +10725,7 @@
       <c r="G82">
         <v>6</v>
       </c>
-      <c r="H82" s="12">
-        <v>0</v>
-      </c>
+      <c r="H82" s="12"/>
       <c r="I82" s="8" t="s">
         <v>49</v>
       </c>
@@ -10613,7 +10743,7 @@
       <c r="B83" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="33" t="s">
         <v>252</v>
       </c>
       <c r="E83" s="19">
@@ -10625,9 +10755,7 @@
       <c r="G83">
         <v>7</v>
       </c>
-      <c r="H83" s="12">
-        <v>0</v>
-      </c>
+      <c r="H83" s="12"/>
       <c r="I83" s="8" t="s">
         <v>49</v>
       </c>
@@ -10645,7 +10773,7 @@
       <c r="B84" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="33" t="s">
         <v>253</v>
       </c>
       <c r="E84" s="19">
@@ -10657,9 +10785,7 @@
       <c r="G84">
         <v>3</v>
       </c>
-      <c r="H84" s="12">
-        <v>0</v>
-      </c>
+      <c r="H84" s="12"/>
       <c r="I84" s="8" t="s">
         <v>49</v>
       </c>
@@ -10677,7 +10803,7 @@
       <c r="B85" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="33" t="s">
         <v>254</v>
       </c>
       <c r="E85" s="19">
@@ -10689,9 +10815,7 @@
       <c r="G85">
         <v>4</v>
       </c>
-      <c r="H85" s="12">
-        <v>0</v>
-      </c>
+      <c r="H85" s="12"/>
       <c r="I85" s="8" t="s">
         <v>49</v>
       </c>
@@ -10709,7 +10833,7 @@
       <c r="B86" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="33" t="s">
         <v>255</v>
       </c>
       <c r="E86" s="19">
@@ -10721,9 +10845,7 @@
       <c r="G86">
         <v>5</v>
       </c>
-      <c r="H86" s="12">
-        <v>0</v>
-      </c>
+      <c r="H86" s="12"/>
       <c r="I86" s="8" t="s">
         <v>49</v>
       </c>
@@ -10741,7 +10863,7 @@
       <c r="B87" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="33" t="s">
         <v>256</v>
       </c>
       <c r="E87" s="19">
@@ -10753,9 +10875,7 @@
       <c r="G87">
         <v>6</v>
       </c>
-      <c r="H87" s="12">
-        <v>0</v>
-      </c>
+      <c r="H87" s="12"/>
       <c r="I87" s="8" t="s">
         <v>49</v>
       </c>
@@ -10773,7 +10893,7 @@
       <c r="B88" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="33" t="s">
         <v>257</v>
       </c>
       <c r="E88" s="19">
@@ -10785,9 +10905,7 @@
       <c r="G88">
         <v>7</v>
       </c>
-      <c r="H88" s="12">
-        <v>0</v>
-      </c>
+      <c r="H88" s="12"/>
       <c r="I88" s="8" t="s">
         <v>49</v>
       </c>
@@ -10805,7 +10923,7 @@
       <c r="B89" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="33" t="s">
         <v>258</v>
       </c>
       <c r="E89" s="19">
@@ -10817,9 +10935,7 @@
       <c r="G89">
         <v>3</v>
       </c>
-      <c r="H89" s="12">
-        <v>0</v>
-      </c>
+      <c r="H89" s="12"/>
       <c r="I89" s="8" t="s">
         <v>49</v>
       </c>
@@ -10837,7 +10953,7 @@
       <c r="B90" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="33" t="s">
         <v>259</v>
       </c>
       <c r="E90" s="19">
@@ -10849,9 +10965,7 @@
       <c r="G90">
         <v>4</v>
       </c>
-      <c r="H90" s="12">
-        <v>0</v>
-      </c>
+      <c r="H90" s="12"/>
       <c r="I90" s="8" t="s">
         <v>49</v>
       </c>
@@ -10869,7 +10983,7 @@
       <c r="B91" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="33" t="s">
         <v>260</v>
       </c>
       <c r="E91" s="19">
@@ -10881,9 +10995,7 @@
       <c r="G91">
         <v>5</v>
       </c>
-      <c r="H91" s="12">
-        <v>0</v>
-      </c>
+      <c r="H91" s="12"/>
       <c r="I91" s="8" t="s">
         <v>49</v>
       </c>
@@ -10901,7 +11013,7 @@
       <c r="B92" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="33" t="s">
         <v>261</v>
       </c>
       <c r="E92" s="19">
@@ -10913,9 +11025,7 @@
       <c r="G92">
         <v>6</v>
       </c>
-      <c r="H92" s="12">
-        <v>0</v>
-      </c>
+      <c r="H92" s="12"/>
       <c r="I92" s="8" t="s">
         <v>49</v>
       </c>
@@ -10933,7 +11043,7 @@
       <c r="B93" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="33" t="s">
         <v>262</v>
       </c>
       <c r="E93" s="19">
@@ -10945,9 +11055,7 @@
       <c r="G93">
         <v>4</v>
       </c>
-      <c r="H93" s="12">
-        <v>0</v>
-      </c>
+      <c r="H93" s="12"/>
       <c r="I93" s="8" t="s">
         <v>49</v>
       </c>
@@ -10965,7 +11073,7 @@
       <c r="B94" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="33" t="s">
         <v>263</v>
       </c>
       <c r="E94" s="19">
@@ -10977,9 +11085,7 @@
       <c r="G94">
         <v>5</v>
       </c>
-      <c r="H94" s="12">
-        <v>0</v>
-      </c>
+      <c r="H94" s="12"/>
       <c r="I94" s="8" t="s">
         <v>49</v>
       </c>
@@ -10997,7 +11103,7 @@
       <c r="B95" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="33" t="s">
         <v>264</v>
       </c>
       <c r="E95" s="19">
@@ -11009,9 +11115,7 @@
       <c r="G95">
         <v>4</v>
       </c>
-      <c r="H95" s="12">
-        <v>0</v>
-      </c>
+      <c r="H95" s="12"/>
       <c r="I95" s="8" t="s">
         <v>49</v>
       </c>
@@ -11029,7 +11133,7 @@
       <c r="B96" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="33" t="s">
         <v>265</v>
       </c>
       <c r="E96" s="19">
@@ -11041,9 +11145,7 @@
       <c r="G96">
         <v>5</v>
       </c>
-      <c r="H96" s="12">
-        <v>0</v>
-      </c>
+      <c r="H96" s="12"/>
       <c r="I96" s="8" t="s">
         <v>49</v>
       </c>
@@ -11061,7 +11163,7 @@
       <c r="B97" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="33" t="s">
         <v>266</v>
       </c>
       <c r="E97" s="19">
@@ -11073,9 +11175,7 @@
       <c r="G97">
         <v>4</v>
       </c>
-      <c r="H97" s="12">
-        <v>0</v>
-      </c>
+      <c r="H97" s="12"/>
       <c r="I97" s="8" t="s">
         <v>49</v>
       </c>
@@ -11093,7 +11193,7 @@
       <c r="B98" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="33" t="s">
         <v>267</v>
       </c>
       <c r="E98" s="19">
@@ -11105,9 +11205,7 @@
       <c r="G98">
         <v>5</v>
       </c>
-      <c r="H98" s="12">
-        <v>0</v>
-      </c>
+      <c r="H98" s="12"/>
       <c r="I98" s="8" t="s">
         <v>49</v>
       </c>
@@ -11125,7 +11223,7 @@
       <c r="B99" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="33" t="s">
         <v>268</v>
       </c>
       <c r="E99" s="19">
@@ -11137,9 +11235,7 @@
       <c r="G99">
         <v>3</v>
       </c>
-      <c r="H99" s="12">
-        <v>0</v>
-      </c>
+      <c r="H99" s="12"/>
       <c r="I99" s="8" t="s">
         <v>49</v>
       </c>
@@ -11157,7 +11253,7 @@
       <c r="B100" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="C100" s="33" t="s">
         <v>269</v>
       </c>
       <c r="E100" s="19">
@@ -11169,9 +11265,7 @@
       <c r="G100">
         <v>4</v>
       </c>
-      <c r="H100" s="12">
-        <v>0</v>
-      </c>
+      <c r="H100" s="12"/>
       <c r="I100" s="8" t="s">
         <v>49</v>
       </c>
@@ -11189,7 +11283,7 @@
       <c r="B101" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C101" s="22" t="s">
+      <c r="C101" s="33" t="s">
         <v>270</v>
       </c>
       <c r="E101" s="19">
@@ -11201,9 +11295,7 @@
       <c r="G101">
         <v>5</v>
       </c>
-      <c r="H101" s="12">
-        <v>0</v>
-      </c>
+      <c r="H101" s="12"/>
       <c r="I101" s="8" t="s">
         <v>49</v>
       </c>
@@ -11221,7 +11313,7 @@
       <c r="B102" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C102" s="33" t="s">
         <v>271</v>
       </c>
       <c r="E102" s="19">
@@ -11233,9 +11325,7 @@
       <c r="G102">
         <v>6</v>
       </c>
-      <c r="H102" s="12">
-        <v>0</v>
-      </c>
+      <c r="H102" s="12"/>
       <c r="I102" s="8" t="s">
         <v>49</v>
       </c>
@@ -11253,7 +11343,7 @@
       <c r="B103" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="C103" s="33" t="s">
         <v>272</v>
       </c>
       <c r="E103" s="19">
@@ -11265,9 +11355,7 @@
       <c r="G103">
         <v>7</v>
       </c>
-      <c r="H103" s="12">
-        <v>0</v>
-      </c>
+      <c r="H103" s="12"/>
       <c r="I103" s="8" t="s">
         <v>49</v>
       </c>
@@ -11285,7 +11373,7 @@
       <c r="B104" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C104" s="22" t="s">
+      <c r="C104" s="33" t="s">
         <v>273</v>
       </c>
       <c r="E104" s="19">
@@ -11297,9 +11385,7 @@
       <c r="G104">
         <v>4</v>
       </c>
-      <c r="H104" s="12">
-        <v>0</v>
-      </c>
+      <c r="H104" s="12"/>
       <c r="I104" s="8" t="s">
         <v>49</v>
       </c>
@@ -11317,7 +11403,7 @@
       <c r="B105" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="C105" s="33" t="s">
         <v>274</v>
       </c>
       <c r="E105" s="19">
@@ -11329,9 +11415,7 @@
       <c r="G105">
         <v>5</v>
       </c>
-      <c r="H105" s="12">
-        <v>0</v>
-      </c>
+      <c r="H105" s="12"/>
       <c r="I105" s="8" t="s">
         <v>49</v>
       </c>
@@ -11349,7 +11433,7 @@
       <c r="B106" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="C106" s="33" t="s">
         <v>275</v>
       </c>
       <c r="E106" s="19">
@@ -11361,9 +11445,7 @@
       <c r="G106">
         <v>6</v>
       </c>
-      <c r="H106" s="12">
-        <v>0</v>
-      </c>
+      <c r="H106" s="12"/>
       <c r="I106" s="8" t="s">
         <v>49</v>
       </c>
@@ -11381,7 +11463,7 @@
       <c r="B107" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C107" s="33" t="s">
         <v>276</v>
       </c>
       <c r="E107" s="19">
@@ -11393,9 +11475,7 @@
       <c r="G107">
         <v>7</v>
       </c>
-      <c r="H107" s="12">
-        <v>0</v>
-      </c>
+      <c r="H107" s="12"/>
       <c r="I107" s="8" t="s">
         <v>49</v>
       </c>
@@ -11413,7 +11493,7 @@
       <c r="B108" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="C108" s="33" t="s">
         <v>277</v>
       </c>
       <c r="E108" s="19">
@@ -11425,9 +11505,7 @@
       <c r="G108">
         <v>3</v>
       </c>
-      <c r="H108" s="12">
-        <v>0</v>
-      </c>
+      <c r="H108" s="12"/>
       <c r="I108" s="8" t="s">
         <v>49</v>
       </c>
@@ -11445,7 +11523,7 @@
       <c r="B109" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C109" s="22" t="s">
+      <c r="C109" s="33" t="s">
         <v>278</v>
       </c>
       <c r="E109" s="19">
@@ -11457,9 +11535,7 @@
       <c r="G109">
         <v>4</v>
       </c>
-      <c r="H109" s="12">
-        <v>0</v>
-      </c>
+      <c r="H109" s="12"/>
       <c r="I109" s="8" t="s">
         <v>49</v>
       </c>
@@ -11477,7 +11553,7 @@
       <c r="B110" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="33" t="s">
         <v>279</v>
       </c>
       <c r="E110" s="19">
@@ -11489,9 +11565,7 @@
       <c r="G110">
         <v>5</v>
       </c>
-      <c r="H110" s="12">
-        <v>0</v>
-      </c>
+      <c r="H110" s="12"/>
       <c r="I110" s="8" t="s">
         <v>49</v>
       </c>
@@ -11509,7 +11583,7 @@
       <c r="B111" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="22" t="s">
+      <c r="C111" s="33" t="s">
         <v>280</v>
       </c>
       <c r="E111" s="19">
@@ -11521,9 +11595,7 @@
       <c r="G111">
         <v>6</v>
       </c>
-      <c r="H111" s="12">
-        <v>0</v>
-      </c>
+      <c r="H111" s="12"/>
       <c r="I111" s="8" t="s">
         <v>49</v>
       </c>
@@ -11541,7 +11613,7 @@
       <c r="B112" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="C112" s="33" t="s">
         <v>281</v>
       </c>
       <c r="E112" s="19">
@@ -11553,9 +11625,7 @@
       <c r="G112">
         <v>7</v>
       </c>
-      <c r="H112" s="12">
-        <v>0</v>
-      </c>
+      <c r="H112" s="12"/>
       <c r="I112" s="8" t="s">
         <v>49</v>
       </c>
@@ -11573,7 +11643,7 @@
       <c r="B113" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C113" s="22" t="s">
+      <c r="C113" s="33" t="s">
         <v>282</v>
       </c>
       <c r="E113" s="19">
@@ -11585,9 +11655,7 @@
       <c r="G113">
         <v>3</v>
       </c>
-      <c r="H113" s="12">
-        <v>0</v>
-      </c>
+      <c r="H113" s="12"/>
       <c r="I113" s="8" t="s">
         <v>49</v>
       </c>
@@ -11605,7 +11673,7 @@
       <c r="B114" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="33" t="s">
         <v>283</v>
       </c>
       <c r="E114" s="19">
@@ -11617,9 +11685,7 @@
       <c r="G114">
         <v>4</v>
       </c>
-      <c r="H114" s="12">
-        <v>0</v>
-      </c>
+      <c r="H114" s="12"/>
       <c r="I114" s="8" t="s">
         <v>49</v>
       </c>
@@ -11637,7 +11703,7 @@
       <c r="B115" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C115" s="33" t="s">
         <v>284</v>
       </c>
       <c r="E115" s="19">
@@ -11649,9 +11715,7 @@
       <c r="G115">
         <v>5</v>
       </c>
-      <c r="H115" s="12">
-        <v>0</v>
-      </c>
+      <c r="H115" s="12"/>
       <c r="I115" s="8" t="s">
         <v>49</v>
       </c>
@@ -11669,7 +11733,7 @@
       <c r="B116" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C116" s="22" t="s">
+      <c r="C116" s="33" t="s">
         <v>285</v>
       </c>
       <c r="E116" s="19">
@@ -11681,9 +11745,7 @@
       <c r="G116">
         <v>6</v>
       </c>
-      <c r="H116" s="12">
-        <v>0</v>
-      </c>
+      <c r="H116" s="12"/>
       <c r="I116" s="8" t="s">
         <v>49</v>
       </c>
@@ -11701,7 +11763,7 @@
       <c r="B117" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C117" s="22" t="s">
+      <c r="C117" s="33" t="s">
         <v>286</v>
       </c>
       <c r="E117" s="19">
@@ -11713,9 +11775,7 @@
       <c r="G117">
         <v>3</v>
       </c>
-      <c r="H117" s="12">
-        <v>0</v>
-      </c>
+      <c r="H117" s="12"/>
       <c r="I117" s="8" t="s">
         <v>49</v>
       </c>
@@ -11733,7 +11793,7 @@
       <c r="B118" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="22" t="s">
+      <c r="C118" s="33" t="s">
         <v>287</v>
       </c>
       <c r="E118" s="19">
@@ -11745,9 +11805,7 @@
       <c r="G118">
         <v>4</v>
       </c>
-      <c r="H118" s="12">
-        <v>0</v>
-      </c>
+      <c r="H118" s="12"/>
       <c r="I118" s="8" t="s">
         <v>49</v>
       </c>
@@ -11765,7 +11823,7 @@
       <c r="B119" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C119" s="22" t="s">
+      <c r="C119" s="33" t="s">
         <v>288</v>
       </c>
       <c r="E119" s="19">
@@ -11777,9 +11835,7 @@
       <c r="G119">
         <v>3</v>
       </c>
-      <c r="H119" s="12">
-        <v>0</v>
-      </c>
+      <c r="H119" s="12"/>
       <c r="I119" s="8" t="s">
         <v>49</v>
       </c>
@@ -11797,7 +11853,7 @@
       <c r="B120" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="22" t="s">
+      <c r="C120" s="33" t="s">
         <v>289</v>
       </c>
       <c r="E120" s="19">
@@ -11809,9 +11865,7 @@
       <c r="G120">
         <v>4</v>
       </c>
-      <c r="H120" s="12">
-        <v>0</v>
-      </c>
+      <c r="H120" s="12"/>
       <c r="I120" s="8" t="s">
         <v>49</v>
       </c>
@@ -11829,7 +11883,7 @@
       <c r="B121" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C121" s="22" t="s">
+      <c r="C121" s="33" t="s">
         <v>290</v>
       </c>
       <c r="E121" s="19">
@@ -11841,9 +11895,7 @@
       <c r="G121">
         <v>5</v>
       </c>
-      <c r="H121" s="12">
-        <v>0</v>
-      </c>
+      <c r="H121" s="12"/>
       <c r="I121" s="8" t="s">
         <v>49</v>
       </c>
@@ -11861,7 +11913,7 @@
       <c r="B122" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="C122" s="33" t="s">
         <v>291</v>
       </c>
       <c r="E122" s="19">
@@ -11873,9 +11925,7 @@
       <c r="G122">
         <v>6</v>
       </c>
-      <c r="H122" s="12">
-        <v>0</v>
-      </c>
+      <c r="H122" s="12"/>
       <c r="I122" s="8" t="s">
         <v>49</v>
       </c>
@@ -11893,7 +11943,7 @@
       <c r="B123" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C123" s="22" t="s">
+      <c r="C123" s="33" t="s">
         <v>292</v>
       </c>
       <c r="E123" s="19">
@@ -11905,9 +11955,7 @@
       <c r="G123">
         <v>4</v>
       </c>
-      <c r="H123" s="12">
-        <v>0</v>
-      </c>
+      <c r="H123" s="12"/>
       <c r="I123" s="8" t="s">
         <v>49</v>
       </c>
@@ -11925,7 +11973,7 @@
       <c r="B124" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="C124" s="33" t="s">
         <v>293</v>
       </c>
       <c r="E124" s="19">
@@ -11937,9 +11985,7 @@
       <c r="G124">
         <v>5</v>
       </c>
-      <c r="H124" s="12">
-        <v>0</v>
-      </c>
+      <c r="H124" s="12"/>
       <c r="I124" s="8" t="s">
         <v>49</v>
       </c>
@@ -11957,7 +12003,7 @@
       <c r="B125" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C125" s="22" t="s">
+      <c r="C125" s="33" t="s">
         <v>294</v>
       </c>
       <c r="E125" s="19">
@@ -11969,9 +12015,7 @@
       <c r="G125">
         <v>6</v>
       </c>
-      <c r="H125" s="12">
-        <v>0</v>
-      </c>
+      <c r="H125" s="12"/>
       <c r="I125" s="8" t="s">
         <v>49</v>
       </c>
@@ -11989,7 +12033,7 @@
       <c r="B126" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="C126" s="33" t="s">
         <v>295</v>
       </c>
       <c r="E126" s="19">
@@ -12001,9 +12045,7 @@
       <c r="G126">
         <v>8</v>
       </c>
-      <c r="H126" s="12">
-        <v>0</v>
-      </c>
+      <c r="H126" s="12"/>
       <c r="I126" s="8" t="s">
         <v>49</v>
       </c>
@@ -12021,7 +12063,7 @@
       <c r="B127" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C127" s="22" t="s">
+      <c r="C127" s="33" t="s">
         <v>296</v>
       </c>
       <c r="E127" s="19">
@@ -12033,9 +12075,7 @@
       <c r="G127">
         <v>5</v>
       </c>
-      <c r="H127" s="12">
-        <v>0</v>
-      </c>
+      <c r="H127" s="12"/>
       <c r="I127" s="8" t="s">
         <v>49</v>
       </c>
@@ -12053,7 +12093,7 @@
       <c r="B128" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C128" s="22" t="s">
+      <c r="C128" s="33" t="s">
         <v>297</v>
       </c>
       <c r="E128" s="19">
@@ -12065,9 +12105,7 @@
       <c r="G128">
         <v>6</v>
       </c>
-      <c r="H128" s="12">
-        <v>0</v>
-      </c>
+      <c r="H128" s="12"/>
       <c r="I128" s="8" t="s">
         <v>49</v>
       </c>
@@ -12085,7 +12123,7 @@
       <c r="B129" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C129" s="22" t="s">
+      <c r="C129" s="33" t="s">
         <v>298</v>
       </c>
       <c r="E129" s="19">
@@ -12097,9 +12135,7 @@
       <c r="G129">
         <v>3</v>
       </c>
-      <c r="H129" s="12">
-        <v>0</v>
-      </c>
+      <c r="H129" s="12"/>
       <c r="I129" s="8" t="s">
         <v>49</v>
       </c>
@@ -12117,7 +12153,7 @@
       <c r="B130" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C130" s="22" t="s">
+      <c r="C130" s="33" t="s">
         <v>299</v>
       </c>
       <c r="E130" s="19">
@@ -12129,9 +12165,7 @@
       <c r="G130">
         <v>4</v>
       </c>
-      <c r="H130" s="12">
-        <v>0</v>
-      </c>
+      <c r="H130" s="12"/>
       <c r="I130" s="8" t="s">
         <v>49</v>
       </c>
@@ -12149,7 +12183,7 @@
       <c r="B131" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C131" s="22" t="s">
+      <c r="C131" s="33" t="s">
         <v>300</v>
       </c>
       <c r="E131" s="19">
@@ -12161,9 +12195,7 @@
       <c r="G131">
         <v>5</v>
       </c>
-      <c r="H131" s="12">
-        <v>0</v>
-      </c>
+      <c r="H131" s="12"/>
       <c r="I131" s="8" t="s">
         <v>49</v>
       </c>
@@ -12181,7 +12213,7 @@
       <c r="B132" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C132" s="22" t="s">
+      <c r="C132" s="33" t="s">
         <v>301</v>
       </c>
       <c r="E132" s="19">
@@ -12193,9 +12225,7 @@
       <c r="G132">
         <v>7</v>
       </c>
-      <c r="H132" s="12">
-        <v>0</v>
-      </c>
+      <c r="H132" s="12"/>
       <c r="I132" s="8" t="s">
         <v>49</v>
       </c>
@@ -12213,7 +12243,7 @@
       <c r="B133" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C133" s="22" t="s">
+      <c r="C133" s="33" t="s">
         <v>302</v>
       </c>
       <c r="E133" s="19">
@@ -12225,9 +12255,7 @@
       <c r="G133">
         <v>3</v>
       </c>
-      <c r="H133" s="12">
-        <v>0</v>
-      </c>
+      <c r="H133" s="12"/>
       <c r="I133" s="8" t="s">
         <v>49</v>
       </c>
@@ -12245,7 +12273,7 @@
       <c r="B134" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C134" s="22" t="s">
+      <c r="C134" s="33" t="s">
         <v>303</v>
       </c>
       <c r="E134" s="19">
@@ -12257,9 +12285,7 @@
       <c r="G134">
         <v>4</v>
       </c>
-      <c r="H134" s="12">
-        <v>0</v>
-      </c>
+      <c r="H134" s="12"/>
       <c r="I134" s="8" t="s">
         <v>49</v>
       </c>
@@ -12277,7 +12303,7 @@
       <c r="B135" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C135" s="22" t="s">
+      <c r="C135" s="33" t="s">
         <v>304</v>
       </c>
       <c r="E135" s="19">
@@ -12289,9 +12315,7 @@
       <c r="G135">
         <v>5</v>
       </c>
-      <c r="H135" s="12">
-        <v>0</v>
-      </c>
+      <c r="H135" s="12"/>
       <c r="I135" s="8" t="s">
         <v>49</v>
       </c>
@@ -12309,7 +12333,7 @@
       <c r="B136" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C136" s="22" t="s">
+      <c r="C136" s="33" t="s">
         <v>305</v>
       </c>
       <c r="E136" s="19">
@@ -12321,9 +12345,7 @@
       <c r="G136">
         <v>7</v>
       </c>
-      <c r="H136" s="12">
-        <v>0</v>
-      </c>
+      <c r="H136" s="12"/>
       <c r="I136" s="8" t="s">
         <v>49</v>
       </c>
@@ -12341,7 +12363,7 @@
       <c r="B137" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C137" s="22" t="s">
+      <c r="C137" s="33" t="s">
         <v>306</v>
       </c>
       <c r="E137" s="19">
@@ -12353,9 +12375,7 @@
       <c r="G137">
         <v>3</v>
       </c>
-      <c r="H137" s="12">
-        <v>0</v>
-      </c>
+      <c r="H137" s="12"/>
       <c r="I137" s="8" t="s">
         <v>49</v>
       </c>
@@ -12373,7 +12393,7 @@
       <c r="B138" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C138" s="22" t="s">
+      <c r="C138" s="33" t="s">
         <v>307</v>
       </c>
       <c r="E138" s="19">
@@ -12385,9 +12405,7 @@
       <c r="G138">
         <v>4</v>
       </c>
-      <c r="H138" s="12">
-        <v>0</v>
-      </c>
+      <c r="H138" s="12"/>
       <c r="I138" s="8" t="s">
         <v>49</v>
       </c>
@@ -12405,7 +12423,7 @@
       <c r="B139" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C139" s="22" t="s">
+      <c r="C139" s="33" t="s">
         <v>308</v>
       </c>
       <c r="E139" s="19">
@@ -12417,9 +12435,7 @@
       <c r="G139">
         <v>5</v>
       </c>
-      <c r="H139" s="12">
-        <v>0</v>
-      </c>
+      <c r="H139" s="12"/>
       <c r="I139" s="8" t="s">
         <v>49</v>
       </c>
@@ -12437,7 +12453,7 @@
       <c r="B140" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C140" s="22" t="s">
+      <c r="C140" s="33" t="s">
         <v>309</v>
       </c>
       <c r="E140" s="19">
@@ -12449,9 +12465,7 @@
       <c r="G140">
         <v>7</v>
       </c>
-      <c r="H140" s="12">
-        <v>0</v>
-      </c>
+      <c r="H140" s="12"/>
       <c r="I140" s="8" t="s">
         <v>49</v>
       </c>
@@ -12469,7 +12483,7 @@
       <c r="B141" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C141" s="22" t="s">
+      <c r="C141" s="33" t="s">
         <v>310</v>
       </c>
       <c r="E141" s="19">
@@ -12481,9 +12495,7 @@
       <c r="G141">
         <v>4</v>
       </c>
-      <c r="H141" s="12">
-        <v>0</v>
-      </c>
+      <c r="H141" s="12"/>
       <c r="I141" s="8" t="s">
         <v>49</v>
       </c>
@@ -12501,7 +12513,7 @@
       <c r="B142" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C142" s="22" t="s">
+      <c r="C142" s="33" t="s">
         <v>311</v>
       </c>
       <c r="E142" s="19">
@@ -12513,9 +12525,7 @@
       <c r="G142">
         <v>5</v>
       </c>
-      <c r="H142" s="12">
-        <v>0</v>
-      </c>
+      <c r="H142" s="12"/>
       <c r="I142" s="8" t="s">
         <v>49</v>
       </c>
@@ -12533,7 +12543,7 @@
       <c r="B143" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C143" s="22" t="s">
+      <c r="C143" s="33" t="s">
         <v>312</v>
       </c>
       <c r="E143" s="19">
@@ -12545,9 +12555,7 @@
       <c r="G143">
         <v>7</v>
       </c>
-      <c r="H143" s="12">
-        <v>0</v>
-      </c>
+      <c r="H143" s="12"/>
       <c r="I143" s="8" t="s">
         <v>49</v>
       </c>
@@ -12565,7 +12573,7 @@
       <c r="B144" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C144" s="22" t="s">
+      <c r="C144" s="33" t="s">
         <v>313</v>
       </c>
       <c r="E144" s="19">
@@ -12577,9 +12585,7 @@
       <c r="G144">
         <v>4</v>
       </c>
-      <c r="H144" s="12">
-        <v>0</v>
-      </c>
+      <c r="H144" s="12"/>
       <c r="I144" s="8" t="s">
         <v>49</v>
       </c>
@@ -12597,7 +12603,7 @@
       <c r="B145" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C145" s="22" t="s">
+      <c r="C145" s="33" t="s">
         <v>314</v>
       </c>
       <c r="E145" s="19">
@@ -12609,9 +12615,7 @@
       <c r="G145">
         <v>3</v>
       </c>
-      <c r="H145" s="12">
-        <v>0</v>
-      </c>
+      <c r="H145" s="12"/>
       <c r="I145" s="8" t="s">
         <v>49</v>
       </c>
@@ -12629,7 +12633,7 @@
       <c r="B146" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C146" s="22" t="s">
+      <c r="C146" s="33" t="s">
         <v>315</v>
       </c>
       <c r="E146" s="19">
@@ -12641,9 +12645,7 @@
       <c r="G146">
         <v>4</v>
       </c>
-      <c r="H146" s="12">
-        <v>0</v>
-      </c>
+      <c r="H146" s="12"/>
       <c r="I146" s="8" t="s">
         <v>49</v>
       </c>
@@ -12661,7 +12663,7 @@
       <c r="B147" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C147" s="22" t="s">
+      <c r="C147" s="33" t="s">
         <v>316</v>
       </c>
       <c r="E147" s="19">
@@ -12673,9 +12675,7 @@
       <c r="G147">
         <v>5</v>
       </c>
-      <c r="H147" s="12">
-        <v>0</v>
-      </c>
+      <c r="H147" s="12"/>
       <c r="I147" s="8" t="s">
         <v>49</v>
       </c>
@@ -12693,7 +12693,7 @@
       <c r="B148" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C148" s="22" t="s">
+      <c r="C148" s="33" t="s">
         <v>317</v>
       </c>
       <c r="E148" s="19">
@@ -12705,9 +12705,7 @@
       <c r="G148">
         <v>7</v>
       </c>
-      <c r="H148" s="12">
-        <v>0</v>
-      </c>
+      <c r="H148" s="12"/>
       <c r="I148" s="8" t="s">
         <v>49</v>
       </c>
@@ -12725,7 +12723,7 @@
       <c r="B149" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="22" t="s">
+      <c r="C149" s="33" t="s">
         <v>318</v>
       </c>
       <c r="E149" s="19">
@@ -12737,9 +12735,7 @@
       <c r="G149">
         <v>3</v>
       </c>
-      <c r="H149" s="12">
-        <v>0</v>
-      </c>
+      <c r="H149" s="12"/>
       <c r="I149" s="8" t="s">
         <v>49</v>
       </c>
@@ -12757,7 +12753,7 @@
       <c r="B150" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C150" s="22" t="s">
+      <c r="C150" s="33" t="s">
         <v>319</v>
       </c>
       <c r="E150" s="19">
@@ -12769,9 +12765,7 @@
       <c r="G150">
         <v>4</v>
       </c>
-      <c r="H150" s="12">
-        <v>0</v>
-      </c>
+      <c r="H150" s="12"/>
       <c r="I150" s="8" t="s">
         <v>49</v>
       </c>
@@ -12789,7 +12783,7 @@
       <c r="B151" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C151" s="22" t="s">
+      <c r="C151" s="33" t="s">
         <v>320</v>
       </c>
       <c r="E151" s="19">
@@ -12801,9 +12795,7 @@
       <c r="G151">
         <v>5</v>
       </c>
-      <c r="H151" s="12">
-        <v>0</v>
-      </c>
+      <c r="H151" s="12"/>
       <c r="I151" s="8" t="s">
         <v>49</v>
       </c>
@@ -12821,7 +12813,7 @@
       <c r="B152" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C152" s="22" t="s">
+      <c r="C152" s="33" t="s">
         <v>321</v>
       </c>
       <c r="E152" s="19">
@@ -12833,9 +12825,7 @@
       <c r="G152">
         <v>7</v>
       </c>
-      <c r="H152" s="12">
-        <v>0</v>
-      </c>
+      <c r="H152" s="12"/>
       <c r="I152" s="8" t="s">
         <v>49</v>
       </c>
@@ -12853,7 +12843,7 @@
       <c r="B153" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C153" s="22" t="s">
+      <c r="C153" s="33" t="s">
         <v>322</v>
       </c>
       <c r="E153" s="19">
@@ -12865,9 +12855,7 @@
       <c r="G153">
         <v>9</v>
       </c>
-      <c r="H153" s="12">
-        <v>0</v>
-      </c>
+      <c r="H153" s="12"/>
       <c r="I153" s="8" t="s">
         <v>49</v>
       </c>
@@ -12885,7 +12873,7 @@
       <c r="B154" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C154" s="22" t="s">
+      <c r="C154" s="33" t="s">
         <v>323</v>
       </c>
       <c r="E154" s="19">
@@ -12897,9 +12885,7 @@
       <c r="G154">
         <v>2</v>
       </c>
-      <c r="H154" s="12">
-        <v>0</v>
-      </c>
+      <c r="H154" s="12"/>
       <c r="I154" s="8" t="s">
         <v>49</v>
       </c>
@@ -12917,7 +12903,7 @@
       <c r="B155" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C155" s="22" t="s">
+      <c r="C155" s="33" t="s">
         <v>324</v>
       </c>
       <c r="E155" s="19">
@@ -12929,9 +12915,7 @@
       <c r="G155">
         <v>3</v>
       </c>
-      <c r="H155" s="12">
-        <v>0</v>
-      </c>
+      <c r="H155" s="12"/>
       <c r="I155" s="8" t="s">
         <v>49</v>
       </c>
@@ -12949,7 +12933,7 @@
       <c r="B156" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C156" s="22" t="s">
+      <c r="C156" s="33" t="s">
         <v>325</v>
       </c>
       <c r="E156" s="19">
@@ -12961,9 +12945,7 @@
       <c r="G156">
         <v>5</v>
       </c>
-      <c r="H156" s="12">
-        <v>0</v>
-      </c>
+      <c r="H156" s="12"/>
       <c r="I156" s="8" t="s">
         <v>49</v>
       </c>
@@ -12981,7 +12963,7 @@
       <c r="B157" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C157" s="22" t="s">
+      <c r="C157" s="33" t="s">
         <v>326</v>
       </c>
       <c r="E157" s="19">
@@ -12993,9 +12975,7 @@
       <c r="G157">
         <v>6</v>
       </c>
-      <c r="H157" s="12">
-        <v>0</v>
-      </c>
+      <c r="H157" s="12"/>
       <c r="I157" s="8" t="s">
         <v>49</v>
       </c>
@@ -13013,7 +12993,7 @@
       <c r="B158" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C158" s="22" t="s">
+      <c r="C158" s="33" t="s">
         <v>327</v>
       </c>
       <c r="E158" s="19">
@@ -13025,9 +13005,7 @@
       <c r="G158">
         <v>4</v>
       </c>
-      <c r="H158" s="12">
-        <v>0</v>
-      </c>
+      <c r="H158" s="12"/>
       <c r="I158" s="8" t="s">
         <v>49</v>
       </c>
@@ -13045,7 +13023,7 @@
       <c r="B159" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C159" s="22" t="s">
+      <c r="C159" s="33" t="s">
         <v>328</v>
       </c>
       <c r="E159" s="19">
@@ -13057,9 +13035,7 @@
       <c r="G159">
         <v>5</v>
       </c>
-      <c r="H159" s="12">
-        <v>0</v>
-      </c>
+      <c r="H159" s="12"/>
       <c r="I159" s="8" t="s">
         <v>49</v>
       </c>
@@ -13077,7 +13053,7 @@
       <c r="B160" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C160" s="22" t="s">
+      <c r="C160" s="33" t="s">
         <v>329</v>
       </c>
       <c r="E160" s="19">
@@ -13089,9 +13065,7 @@
       <c r="G160">
         <v>4</v>
       </c>
-      <c r="H160" s="12">
-        <v>0</v>
-      </c>
+      <c r="H160" s="12"/>
       <c r="I160" s="8" t="s">
         <v>49</v>
       </c>
@@ -13109,7 +13083,7 @@
       <c r="B161" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C161" s="22" t="s">
+      <c r="C161" s="33" t="s">
         <v>330</v>
       </c>
       <c r="E161" s="19">
@@ -13121,9 +13095,7 @@
       <c r="G161">
         <v>5</v>
       </c>
-      <c r="H161" s="12">
-        <v>0</v>
-      </c>
+      <c r="H161" s="12"/>
       <c r="I161" s="8" t="s">
         <v>49</v>
       </c>
@@ -13141,7 +13113,7 @@
       <c r="B162" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C162" s="22" t="s">
+      <c r="C162" s="33" t="s">
         <v>331</v>
       </c>
       <c r="E162" s="19">
@@ -13153,9 +13125,7 @@
       <c r="G162">
         <v>6</v>
       </c>
-      <c r="H162" s="12">
-        <v>0</v>
-      </c>
+      <c r="H162" s="12"/>
       <c r="I162" s="8" t="s">
         <v>49</v>
       </c>
@@ -13173,7 +13143,7 @@
       <c r="B163" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C163" s="22" t="s">
+      <c r="C163" s="33" t="s">
         <v>332</v>
       </c>
       <c r="E163" s="19">
@@ -13185,9 +13155,7 @@
       <c r="G163">
         <v>4</v>
       </c>
-      <c r="H163" s="12">
-        <v>0</v>
-      </c>
+      <c r="H163" s="12"/>
       <c r="I163" s="8" t="s">
         <v>49</v>
       </c>
@@ -13205,7 +13173,7 @@
       <c r="B164" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C164" s="22" t="s">
+      <c r="C164" s="33" t="s">
         <v>333</v>
       </c>
       <c r="E164" s="19">
@@ -13217,9 +13185,7 @@
       <c r="G164">
         <v>5</v>
       </c>
-      <c r="H164" s="12">
-        <v>0</v>
-      </c>
+      <c r="H164" s="12"/>
       <c r="I164" s="8" t="s">
         <v>49</v>
       </c>
@@ -13237,7 +13203,7 @@
       <c r="B165" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C165" s="22" t="s">
+      <c r="C165" s="33" t="s">
         <v>334</v>
       </c>
       <c r="E165" s="19">
@@ -13249,9 +13215,7 @@
       <c r="G165">
         <v>6</v>
       </c>
-      <c r="H165" s="12">
-        <v>0</v>
-      </c>
+      <c r="H165" s="12"/>
       <c r="I165" s="8" t="s">
         <v>49</v>
       </c>
@@ -13269,7 +13233,7 @@
       <c r="B166" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C166" s="22" t="s">
+      <c r="C166" s="33" t="s">
         <v>335</v>
       </c>
       <c r="E166" s="19">
@@ -13281,9 +13245,7 @@
       <c r="G166">
         <v>4</v>
       </c>
-      <c r="H166" s="12">
-        <v>0</v>
-      </c>
+      <c r="H166" s="12"/>
       <c r="I166" s="8" t="s">
         <v>49</v>
       </c>
@@ -13301,7 +13263,7 @@
       <c r="B167" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C167" s="22" t="s">
+      <c r="C167" s="33" t="s">
         <v>336</v>
       </c>
       <c r="E167" s="19">
@@ -13313,9 +13275,7 @@
       <c r="G167">
         <v>5</v>
       </c>
-      <c r="H167" s="12">
-        <v>0</v>
-      </c>
+      <c r="H167" s="12"/>
       <c r="I167" s="8" t="s">
         <v>49</v>
       </c>
@@ -13333,7 +13293,7 @@
       <c r="B168" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C168" s="22" t="s">
+      <c r="C168" s="33" t="s">
         <v>337</v>
       </c>
       <c r="E168" s="19">
@@ -13345,9 +13305,7 @@
       <c r="G168">
         <v>6</v>
       </c>
-      <c r="H168" s="12">
-        <v>0</v>
-      </c>
+      <c r="H168" s="12"/>
       <c r="I168" s="8" t="s">
         <v>49</v>
       </c>
@@ -13359,74 +13317,1204 @@
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" s="3"/>
-      <c r="B169" s="16"/>
-      <c r="C169" s="22"/>
+      <c r="A169" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C169" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="E169" s="30">
+        <v>17</v>
+      </c>
+      <c r="F169">
+        <v>4.8</v>
+      </c>
+      <c r="G169">
+        <v>2.5</v>
+      </c>
+      <c r="H169" s="12"/>
+      <c r="I169" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J169" s="23">
+        <v>40</v>
+      </c>
+      <c r="K169" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" s="3"/>
-      <c r="B170" s="16"/>
-      <c r="C170" s="22"/>
+      <c r="A170" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="E170" s="30">
+        <v>17</v>
+      </c>
+      <c r="F170">
+        <v>4.8</v>
+      </c>
+      <c r="G170">
+        <v>3.5</v>
+      </c>
+      <c r="H170" s="12"/>
+      <c r="I170" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J170" s="23">
+        <v>60</v>
+      </c>
+      <c r="K170" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171" s="3"/>
-      <c r="B171" s="16"/>
-      <c r="C171" s="22"/>
+      <c r="A171" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="E171" s="30">
+        <v>17</v>
+      </c>
+      <c r="F171">
+        <v>4.8</v>
+      </c>
+      <c r="G171">
+        <v>4.5</v>
+      </c>
+      <c r="H171" s="12"/>
+      <c r="I171" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J171" s="23">
+        <v>10</v>
+      </c>
+      <c r="K171" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="3"/>
-      <c r="B172" s="16"/>
-      <c r="C172" s="22"/>
+      <c r="A172" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="E172" s="30">
+        <v>30</v>
+      </c>
+      <c r="F172">
+        <v>4.8</v>
+      </c>
+      <c r="G172">
+        <v>3.5</v>
+      </c>
+      <c r="H172" s="12"/>
+      <c r="I172" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J172" s="23">
+        <v>26</v>
+      </c>
+      <c r="K172" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" s="3"/>
-      <c r="B173" s="16"/>
-      <c r="C173" s="22"/>
+      <c r="A173" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C173" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="E173" s="30">
+        <v>30</v>
+      </c>
+      <c r="F173">
+        <v>4.8</v>
+      </c>
+      <c r="G173">
+        <v>4.5</v>
+      </c>
+      <c r="H173" s="12"/>
+      <c r="I173" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J173" s="23">
+        <v>19</v>
+      </c>
+      <c r="K173" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A174" s="3"/>
-      <c r="B174" s="16"/>
-      <c r="C174" s="22"/>
+      <c r="A174" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C174" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="E174" s="30">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>4.8</v>
+      </c>
+      <c r="G174">
+        <v>1.5</v>
+      </c>
+      <c r="H174" s="12"/>
+      <c r="I174" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J174" s="23">
+        <v>53</v>
+      </c>
+      <c r="K174" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175" s="3"/>
-      <c r="B175" s="16"/>
-      <c r="C175" s="22"/>
+      <c r="A175" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C175" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="E175" s="30">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>4.8</v>
+      </c>
+      <c r="G175">
+        <v>2.5</v>
+      </c>
+      <c r="H175" s="12"/>
+      <c r="I175" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J175" s="23">
+        <v>26</v>
+      </c>
+      <c r="K175" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" s="3"/>
-      <c r="B176" s="16"/>
-      <c r="C176" s="22"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="3"/>
-      <c r="B177" s="16"/>
-      <c r="C177" s="22"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="3"/>
-      <c r="B178" s="16"/>
-      <c r="C178" s="22"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="3"/>
-      <c r="B179" s="16"/>
-      <c r="C179" s="22"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="3"/>
-      <c r="B180" s="16"/>
-      <c r="C180" s="22"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="3"/>
-      <c r="B181" s="16"/>
-      <c r="C181" s="22"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="3"/>
-      <c r="B182" s="16"/>
-      <c r="C182" s="22"/>
+      <c r="A176" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C176" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="E176" s="30">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>4.8</v>
+      </c>
+      <c r="G176">
+        <v>3.5</v>
+      </c>
+      <c r="H176" s="12"/>
+      <c r="I176" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J176" s="23">
+        <v>24</v>
+      </c>
+      <c r="K176" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C177" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="E177" s="30">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>4.8</v>
+      </c>
+      <c r="G177">
+        <v>4.5</v>
+      </c>
+      <c r="H177" s="12"/>
+      <c r="I177" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J177" s="23">
+        <v>33</v>
+      </c>
+      <c r="K177" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C178" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="E178" s="30">
+        <v>17</v>
+      </c>
+      <c r="F178">
+        <v>4.8</v>
+      </c>
+      <c r="G178">
+        <v>2.5</v>
+      </c>
+      <c r="H178" s="12"/>
+      <c r="I178" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J178" s="23">
+        <v>74</v>
+      </c>
+      <c r="K178" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C179" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="E179" s="30">
+        <v>17</v>
+      </c>
+      <c r="F179">
+        <v>4.8</v>
+      </c>
+      <c r="G179">
+        <v>4.5</v>
+      </c>
+      <c r="H179" s="12"/>
+      <c r="I179" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J179" s="23">
+        <v>39</v>
+      </c>
+      <c r="K179" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C180" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="E180" s="30">
+        <v>17</v>
+      </c>
+      <c r="F180">
+        <v>4.8</v>
+      </c>
+      <c r="G180">
+        <v>2.5</v>
+      </c>
+      <c r="H180" s="12"/>
+      <c r="I180" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J180" s="23">
+        <v>13</v>
+      </c>
+      <c r="K180" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C181" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="E181" s="30">
+        <v>17</v>
+      </c>
+      <c r="F181">
+        <v>4.8</v>
+      </c>
+      <c r="G181">
+        <v>3.5</v>
+      </c>
+      <c r="H181" s="12"/>
+      <c r="I181" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J181" s="23">
+        <v>34</v>
+      </c>
+      <c r="K181" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C182" s="33" t="s">
+        <v>590</v>
+      </c>
+      <c r="E182" s="30">
+        <v>17</v>
+      </c>
+      <c r="F182">
+        <v>4.8</v>
+      </c>
+      <c r="G182">
+        <v>4.5</v>
+      </c>
+      <c r="H182" s="12"/>
+      <c r="I182" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J182" s="23">
+        <v>23</v>
+      </c>
+      <c r="K182" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C183" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="E183" s="30">
+        <v>30</v>
+      </c>
+      <c r="F183">
+        <v>4.8</v>
+      </c>
+      <c r="G183">
+        <v>3.5</v>
+      </c>
+      <c r="H183" s="12"/>
+      <c r="I183" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J183" s="23">
+        <v>10</v>
+      </c>
+      <c r="K183" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C184" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="E184" s="30">
+        <v>30</v>
+      </c>
+      <c r="F184">
+        <v>4.8</v>
+      </c>
+      <c r="G184">
+        <v>4.5</v>
+      </c>
+      <c r="H184" s="12"/>
+      <c r="I184" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J184" s="23">
+        <v>9</v>
+      </c>
+      <c r="K184" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C185" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="E185" s="30">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>4.8</v>
+      </c>
+      <c r="G185">
+        <v>1.5</v>
+      </c>
+      <c r="H185" s="12"/>
+      <c r="I185" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J185" s="23">
+        <v>9</v>
+      </c>
+      <c r="K185" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C186" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="E186" s="30">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>4.8</v>
+      </c>
+      <c r="G186">
+        <v>2.5</v>
+      </c>
+      <c r="H186" s="12"/>
+      <c r="I186" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J186" s="23">
+        <v>36</v>
+      </c>
+      <c r="K186" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C187" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="E187" s="30">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>4.8</v>
+      </c>
+      <c r="G187">
+        <v>3.5</v>
+      </c>
+      <c r="H187" s="12"/>
+      <c r="I187" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J187" s="23">
+        <v>8</v>
+      </c>
+      <c r="K187" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C188" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="E188" s="30">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>4.8</v>
+      </c>
+      <c r="G188">
+        <v>4.5</v>
+      </c>
+      <c r="H188" s="12"/>
+      <c r="I188" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J188" s="23">
+        <v>5</v>
+      </c>
+      <c r="K188" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C189" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="E189" s="30">
+        <v>17</v>
+      </c>
+      <c r="F189">
+        <v>4.8</v>
+      </c>
+      <c r="G189">
+        <v>2.5</v>
+      </c>
+      <c r="H189" s="12"/>
+      <c r="I189" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J189" s="23">
+        <v>5</v>
+      </c>
+      <c r="K189" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C190" s="33" t="s">
+        <v>598</v>
+      </c>
+      <c r="E190" s="30">
+        <v>17</v>
+      </c>
+      <c r="F190">
+        <v>4.8</v>
+      </c>
+      <c r="G190">
+        <v>3.5</v>
+      </c>
+      <c r="H190" s="12"/>
+      <c r="I190" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J190" s="23">
+        <v>14</v>
+      </c>
+      <c r="K190" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C191" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="E191" s="30">
+        <v>30</v>
+      </c>
+      <c r="F191">
+        <v>4.8</v>
+      </c>
+      <c r="G191">
+        <v>3.5</v>
+      </c>
+      <c r="H191" s="12"/>
+      <c r="I191" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J191" s="23">
+        <v>14</v>
+      </c>
+      <c r="K191" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C192" s="33" t="s">
+        <v>600</v>
+      </c>
+      <c r="E192" s="30">
+        <v>30</v>
+      </c>
+      <c r="F192">
+        <v>4.8</v>
+      </c>
+      <c r="G192">
+        <v>4.5</v>
+      </c>
+      <c r="H192" s="12"/>
+      <c r="I192" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J192" s="23">
+        <v>1</v>
+      </c>
+      <c r="K192" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B193" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C193" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="E193" s="30">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>4.8</v>
+      </c>
+      <c r="G193">
+        <v>1.5</v>
+      </c>
+      <c r="H193" s="12"/>
+      <c r="I193" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J193" s="23">
+        <v>2</v>
+      </c>
+      <c r="K193" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B194" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C194" s="33" t="s">
+        <v>602</v>
+      </c>
+      <c r="E194" s="30">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>4.8</v>
+      </c>
+      <c r="G194">
+        <v>2.5</v>
+      </c>
+      <c r="H194" s="12"/>
+      <c r="I194" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J194" s="23">
+        <v>4</v>
+      </c>
+      <c r="K194" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B195" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C195" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="E195" s="30">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>4.8</v>
+      </c>
+      <c r="G195">
+        <v>3.5</v>
+      </c>
+      <c r="H195" s="12"/>
+      <c r="I195" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J195" s="23">
+        <v>10</v>
+      </c>
+      <c r="K195" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B196" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C196" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="E196" s="30">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>4.8</v>
+      </c>
+      <c r="G196">
+        <v>4.5</v>
+      </c>
+      <c r="H196" s="12"/>
+      <c r="I196" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J196" s="23">
+        <v>4</v>
+      </c>
+      <c r="K196" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B197" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C197" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="E197" s="30">
+        <v>17</v>
+      </c>
+      <c r="F197">
+        <v>4.8</v>
+      </c>
+      <c r="G197">
+        <v>2.5</v>
+      </c>
+      <c r="H197" s="12"/>
+      <c r="I197" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J197" s="23">
+        <v>7</v>
+      </c>
+      <c r="K197" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B198" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C198" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="E198" s="30">
+        <v>17</v>
+      </c>
+      <c r="F198">
+        <v>4.8</v>
+      </c>
+      <c r="G198">
+        <v>3.5</v>
+      </c>
+      <c r="H198" s="12"/>
+      <c r="I198" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J198" s="23">
+        <v>7</v>
+      </c>
+      <c r="K198" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B199" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C199" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="E199" s="30">
+        <v>17</v>
+      </c>
+      <c r="F199">
+        <v>4.8</v>
+      </c>
+      <c r="G199">
+        <v>4.5</v>
+      </c>
+      <c r="H199" s="12"/>
+      <c r="I199" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J199" s="23">
+        <v>14</v>
+      </c>
+      <c r="K199" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B200" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C200" s="33" t="s">
+        <v>608</v>
+      </c>
+      <c r="E200" s="30">
+        <v>30</v>
+      </c>
+      <c r="F200">
+        <v>4.8</v>
+      </c>
+      <c r="G200">
+        <v>3.5</v>
+      </c>
+      <c r="H200" s="12"/>
+      <c r="I200" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J200" s="23">
+        <v>21</v>
+      </c>
+      <c r="K200" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B201" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C201" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="E201" s="30">
+        <v>30</v>
+      </c>
+      <c r="F201">
+        <v>4.8</v>
+      </c>
+      <c r="G201">
+        <v>4.5</v>
+      </c>
+      <c r="H201" s="12"/>
+      <c r="I201" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J201" s="23">
+        <v>7</v>
+      </c>
+      <c r="K201" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B202" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C202" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="E202" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="F202">
+        <v>4.8</v>
+      </c>
+      <c r="G202">
+        <v>1.5</v>
+      </c>
+      <c r="H202" s="12"/>
+      <c r="I202" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J202" s="23">
+        <v>12</v>
+      </c>
+      <c r="K202" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B203" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C203" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="E203" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="F203">
+        <v>4.8</v>
+      </c>
+      <c r="G203">
+        <v>2.5</v>
+      </c>
+      <c r="H203" s="12"/>
+      <c r="I203" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J203" s="23">
+        <v>30</v>
+      </c>
+      <c r="K203" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B204" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C204" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="E204" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="F204">
+        <v>4.8</v>
+      </c>
+      <c r="G204">
+        <v>3.5</v>
+      </c>
+      <c r="H204" s="12"/>
+      <c r="I204" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J204" s="23">
+        <v>14</v>
+      </c>
+      <c r="K204" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B205" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C205" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="E205" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="F205">
+        <v>4.8</v>
+      </c>
+      <c r="G205">
+        <v>4.5</v>
+      </c>
+      <c r="H205" s="12"/>
+      <c r="I205" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J205" s="23">
+        <v>17</v>
+      </c>
+      <c r="K205" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B206" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C206" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="E206" s="30">
+        <v>17</v>
+      </c>
+      <c r="F206">
+        <v>4.8</v>
+      </c>
+      <c r="G206">
+        <v>2.5</v>
+      </c>
+      <c r="H206" s="12"/>
+      <c r="I206" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J206" s="23">
+        <v>10</v>
+      </c>
+      <c r="K206" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B207" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C207" s="33" t="s">
+        <v>615</v>
+      </c>
+      <c r="E207" s="30">
+        <v>17</v>
+      </c>
+      <c r="F207">
+        <v>4.8</v>
+      </c>
+      <c r="G207">
+        <v>3.5</v>
+      </c>
+      <c r="H207" s="12"/>
+      <c r="I207" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J207" s="23">
+        <v>13</v>
+      </c>
+      <c r="K207" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B208" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C208" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="E208" s="30">
+        <v>30</v>
+      </c>
+      <c r="F208">
+        <v>4.8</v>
+      </c>
+      <c r="G208">
+        <v>3.5</v>
+      </c>
+      <c r="H208" s="12"/>
+      <c r="I208" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J208" s="23">
+        <v>13</v>
+      </c>
+      <c r="K208" s="31">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
